--- a/excelData/Processos Minha Pauta - BoTRT.xlsx
+++ b/excelData/Processos Minha Pauta - BoTRT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PICHAU\Documents\awer\ProjetosElectron\SCCBOT_EXCEL\SCC_BOT_EXCEL\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D803539-DECA-46C0-B360-13AA3D3A058B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D62E0-27F7-4EA2-97AE-26DD65144C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20904" yWindow="1680" windowWidth="18072" windowHeight="14316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4068" yWindow="1020" windowWidth="18072" windowHeight="14316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="61">
   <si>
     <t>NCM</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Data final</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>senha</t>
   </si>
 </sst>
 </file>
@@ -633,7 +639,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -642,7 +648,7 @@
     <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.69921875" customWidth="1"/>
     <col min="4" max="5" width="12.69921875" customWidth="1"/>
-    <col min="6" max="10" width="8.796875" hidden="1"/>
+    <col min="6" max="10" width="8.796875" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="1.09765625" hidden="1"/>
   </cols>
   <sheetData>
@@ -667,15 +673,35 @@
       <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="6">
+        <v>45505</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45536</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="6">
+        <v>45505</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45536</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>

--- a/excelData/Processos Minha Pauta - BoTRT.xlsx
+++ b/excelData/Processos Minha Pauta - BoTRT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PICHAU\Documents\awer\ProjetosElectron\SCCBOT_EXCEL\SCC_BOT_EXCEL\excelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Awer-Bost\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D62E0-27F7-4EA2-97AE-26DD65144C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C05C838-CE90-4100-8E37-0FDAB85E3BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="1020" windowWidth="18072" windowHeight="14316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16572" yWindow="1656" windowWidth="8664" windowHeight="14364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="61">
   <si>
     <t>NCM</t>
   </si>
@@ -120,94 +120,94 @@
     <t>Usuário</t>
   </si>
   <si>
+    <t>TRT-1</t>
+  </si>
+  <si>
+    <t>TRT-2</t>
+  </si>
+  <si>
+    <t>TRT-3</t>
+  </si>
+  <si>
+    <t>TRT-4</t>
+  </si>
+  <si>
+    <t>TRT-5</t>
+  </si>
+  <si>
+    <t>TRT-6</t>
+  </si>
+  <si>
+    <t>TRT-7</t>
+  </si>
+  <si>
+    <t>TRT-8</t>
+  </si>
+  <si>
+    <t>TRT-9</t>
+  </si>
+  <si>
+    <t>TRT-10</t>
+  </si>
+  <si>
+    <t>TRT-11</t>
+  </si>
+  <si>
+    <t>TRT-12</t>
+  </si>
+  <si>
+    <t>TRT-13</t>
+  </si>
+  <si>
+    <t>TRT-14</t>
+  </si>
+  <si>
+    <t>TRT-15</t>
+  </si>
+  <si>
+    <t>TRT-16</t>
+  </si>
+  <si>
+    <t>TRT-17</t>
+  </si>
+  <si>
+    <t>TRT-18</t>
+  </si>
+  <si>
+    <t>TRT-19</t>
+  </si>
+  <si>
+    <t>TRT-20</t>
+  </si>
+  <si>
+    <t>TRT-21</t>
+  </si>
+  <si>
+    <t>TRT-22</t>
+  </si>
+  <si>
+    <t>TRT-23</t>
+  </si>
+  <si>
+    <t>TRT-24</t>
+  </si>
+  <si>
+    <t>Selecione o TRT</t>
+  </si>
+  <si>
+    <t>Data inicial</t>
+  </si>
+  <si>
+    <t>Data final</t>
+  </si>
+  <si>
+    <t>Bqq188332@</t>
+  </si>
+  <si>
     <t>Senha</t>
   </si>
   <si>
-    <t>TRT-1</t>
-  </si>
-  <si>
-    <t>TRT-2</t>
-  </si>
-  <si>
-    <t>TRT-3</t>
-  </si>
-  <si>
-    <t>TRT-4</t>
-  </si>
-  <si>
-    <t>TRT-5</t>
-  </si>
-  <si>
-    <t>TRT-6</t>
-  </si>
-  <si>
-    <t>TRT-7</t>
-  </si>
-  <si>
-    <t>TRT-8</t>
-  </si>
-  <si>
-    <t>TRT-9</t>
-  </si>
-  <si>
-    <t>TRT-10</t>
-  </si>
-  <si>
-    <t>TRT-11</t>
-  </si>
-  <si>
-    <t>TRT-12</t>
-  </si>
-  <si>
-    <t>TRT-13</t>
-  </si>
-  <si>
-    <t>TRT-14</t>
-  </si>
-  <si>
-    <t>TRT-15</t>
-  </si>
-  <si>
-    <t>TRT-16</t>
-  </si>
-  <si>
-    <t>TRT-17</t>
-  </si>
-  <si>
-    <t>TRT-18</t>
-  </si>
-  <si>
-    <t>TRT-19</t>
-  </si>
-  <si>
-    <t>TRT-20</t>
-  </si>
-  <si>
-    <t>TRT-21</t>
-  </si>
-  <si>
-    <t>TRT-22</t>
-  </si>
-  <si>
-    <t>TRT-23</t>
-  </si>
-  <si>
-    <t>TRT-24</t>
-  </si>
-  <si>
-    <t>Selecione o TRT</t>
-  </si>
-  <si>
-    <t>Data inicial</t>
-  </si>
-  <si>
-    <t>Data final</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>senha</t>
+    <t>Populi10</t>
   </si>
 </sst>
 </file>
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -292,6 +292,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,96 +639,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="5" width="12.69921875" customWidth="1"/>
-    <col min="6" max="10" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="8.69921875" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="1.09765625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
+      <c r="E1" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="6">
-        <v>45505</v>
+        <v>45515</v>
       </c>
       <c r="C2" s="6">
-        <v>45536</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
+        <v>45546</v>
+      </c>
+      <c r="D2">
+        <v>15992496858</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B3" s="6">
-        <v>45505</v>
+        <v>45526</v>
       </c>
       <c r="C3" s="6">
-        <v>45536</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
+        <v>45557</v>
+      </c>
+      <c r="D3">
+        <v>15992496858</v>
       </c>
       <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45526</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45557</v>
+      </c>
+      <c r="D4">
+        <v>15992496858</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45526</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45557</v>
+      </c>
+      <c r="D5">
+        <v>15992496858</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45526</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45557</v>
+      </c>
+      <c r="D6">
+        <v>15992496858</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45526</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45557</v>
+      </c>
+      <c r="D7">
+        <v>21762442817</v>
+      </c>
+      <c r="E7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45526</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45557</v>
+      </c>
+      <c r="D8">
+        <v>21762442817</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45526</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45557</v>
+      </c>
+      <c r="D9">
+        <v>21762442817</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
@@ -1095,13 +1176,9 @@
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Insira uma data válida" error="A data deve estar no formado DD/MM/AAAA. _x000a__x000a_Por exemplo: 24/03/2024" promptTitle="Insira a data da busca" prompt="A data deve estar no formado DD/MM/AAAA. _x000a_Por exemplo: 24/03/2024" sqref="B2:C102" xr:uid="{0F739D4F-76EB-4B21-9F9E-4384D66C2C8B}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Insira uma data válida" error="A data deve estar no formado DD/MM/AAAA. _x000a__x000a_Por exemplo: 24/03/2024" promptTitle="Insira a data da busca" prompt="A data deve estar no formado DD/MM/AAAA. _x000a_Por exemplo: 24/03/2024" sqref="B2:C101" xr:uid="{0F739D4F-76EB-4B21-9F9E-4384D66C2C8B}">
       <formula1>36526</formula1>
       <formula2>77432</formula2>
     </dataValidation>
@@ -1114,7 +1191,7 @@
           <x14:formula1>
             <xm:f>Planilha1!$A$2:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A127</xm:sqref>
+          <xm:sqref>A2:A6 A10:A126</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2576,7 +2653,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2584,7 +2661,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2592,7 +2669,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2600,7 +2677,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2608,7 +2685,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2616,7 +2693,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2624,7 +2701,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2632,7 +2709,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2640,7 +2717,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -2648,7 +2725,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -2656,7 +2733,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>14</v>
@@ -2664,7 +2741,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -2672,7 +2749,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -2680,7 +2757,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -2688,7 +2765,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -2696,7 +2773,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -2704,7 +2781,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2712,7 +2789,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2720,7 +2797,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -2728,7 +2805,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -2736,7 +2813,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -2744,7 +2821,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2752,7 +2829,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2760,7 +2837,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>25</v>
